--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H2">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I2">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J2">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>37719.71252932313</v>
+        <v>37521.31691212607</v>
       </c>
       <c r="R2">
-        <v>339477.4127639082</v>
+        <v>337691.8522091346</v>
       </c>
       <c r="S2">
-        <v>0.1599004340622525</v>
+        <v>0.1712105628349335</v>
       </c>
       <c r="T2">
-        <v>0.1599004340622525</v>
+        <v>0.1712105628349335</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H3">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I3">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J3">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>39757.97427463486</v>
+        <v>40597.406480545</v>
       </c>
       <c r="R3">
-        <v>357821.7684717138</v>
+        <v>365376.6583249049</v>
       </c>
       <c r="S3">
-        <v>0.168540980767227</v>
+        <v>0.1852468246104222</v>
       </c>
       <c r="T3">
-        <v>0.168540980767227</v>
+        <v>0.1852468246104222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H4">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I4">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J4">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>25687.19388817423</v>
+        <v>17501.00966691201</v>
       </c>
       <c r="R4">
-        <v>231184.7449935681</v>
+        <v>157509.0870022081</v>
       </c>
       <c r="S4">
-        <v>0.1088924908790657</v>
+        <v>0.07985747734465205</v>
       </c>
       <c r="T4">
-        <v>0.1088924908790657</v>
+        <v>0.07985747734465205</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H5">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I5">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J5">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>13762.96920758622</v>
+        <v>13743.06037502519</v>
       </c>
       <c r="R5">
-        <v>123866.722868276</v>
+        <v>123687.5433752267</v>
       </c>
       <c r="S5">
-        <v>0.05834362466489196</v>
+        <v>0.06270987522621072</v>
       </c>
       <c r="T5">
-        <v>0.05834362466489196</v>
+        <v>0.06270987522621072</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>230.4028776666667</v>
+        <v>235.2675016666667</v>
       </c>
       <c r="H6">
-        <v>691.2086330000001</v>
+        <v>705.802505</v>
       </c>
       <c r="I6">
-        <v>0.580610952272674</v>
+        <v>0.5738994362335403</v>
       </c>
       <c r="J6">
-        <v>0.5806109522726741</v>
+        <v>0.5738994362335402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>20035.36936568716</v>
+        <v>16409.01798902369</v>
       </c>
       <c r="R6">
-        <v>180318.3242911845</v>
+        <v>147681.1619012133</v>
       </c>
       <c r="S6">
-        <v>0.0849334218992369</v>
+        <v>0.07487469621732175</v>
       </c>
       <c r="T6">
-        <v>0.0849334218992369</v>
+        <v>0.07487469621732175</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>404.138192</v>
       </c>
       <c r="I7">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J7">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>22054.08858711462</v>
+        <v>21484.47628182568</v>
       </c>
       <c r="R7">
-        <v>198486.7972840315</v>
+        <v>193360.2865364311</v>
       </c>
       <c r="S7">
-        <v>0.09349112444018609</v>
+        <v>0.09803411977889259</v>
       </c>
       <c r="T7">
-        <v>0.09349112444018609</v>
+        <v>0.09803411977889258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>404.138192</v>
       </c>
       <c r="I8">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J8">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>23245.8263306058</v>
@@ -948,10 +948,10 @@
         <v>209212.4369754523</v>
       </c>
       <c r="S8">
-        <v>0.09854310839484828</v>
+        <v>0.1060711973129043</v>
       </c>
       <c r="T8">
-        <v>0.09854310839484828</v>
+        <v>0.1060711973129043</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>404.138192</v>
       </c>
       <c r="I9">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J9">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>15018.8750543574</v>
+        <v>10020.97095838494</v>
       </c>
       <c r="R9">
-        <v>135169.8754892166</v>
+        <v>90188.73862546447</v>
       </c>
       <c r="S9">
-        <v>0.06366762839063396</v>
+        <v>0.0457259024771365</v>
       </c>
       <c r="T9">
-        <v>0.06366762839063396</v>
+        <v>0.0457259024771365</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>404.138192</v>
       </c>
       <c r="I10">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J10">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>8046.979199268141</v>
+        <v>7869.192207683539</v>
       </c>
       <c r="R10">
-        <v>72422.81279341326</v>
+        <v>70822.72986915185</v>
       </c>
       <c r="S10">
-        <v>0.0341125470098057</v>
+        <v>0.03590729051672378</v>
       </c>
       <c r="T10">
-        <v>0.0341125470098057</v>
+        <v>0.03590729051672378</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>404.138192</v>
       </c>
       <c r="I11">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="J11">
-        <v>0.339473567464654</v>
+        <v>0.3286113026040369</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>11714.34725338709</v>
+        <v>9395.703211027158</v>
       </c>
       <c r="R11">
-        <v>105429.1252804838</v>
+        <v>84561.32889924443</v>
       </c>
       <c r="S11">
-        <v>0.04965915922917995</v>
+        <v>0.0428727925183797</v>
       </c>
       <c r="T11">
-        <v>0.04965915922917994</v>
+        <v>0.0428727925183797</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H12">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I12">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J12">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>19.96424004610578</v>
+        <v>51.96056646138668</v>
       </c>
       <c r="R12">
-        <v>179.678160414952</v>
+        <v>467.64509815248</v>
       </c>
       <c r="S12">
-        <v>8.463189231926531E-05</v>
+        <v>0.0002370971639910892</v>
       </c>
       <c r="T12">
-        <v>8.463189231926529E-05</v>
+        <v>0.0002370971639910892</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H13">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I13">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J13">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>21.043048553158</v>
+        <v>56.220421115085</v>
       </c>
       <c r="R13">
-        <v>189.387436978422</v>
+        <v>505.983790035765</v>
       </c>
       <c r="S13">
-        <v>8.920514956277157E-05</v>
+        <v>0.0002565349708933037</v>
       </c>
       <c r="T13">
-        <v>8.920514956277155E-05</v>
+        <v>0.0002565349708933037</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H14">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I14">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J14">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>13.59568433867844</v>
+        <v>24.23588644472833</v>
       </c>
       <c r="R14">
-        <v>122.361159048106</v>
+        <v>218.122978002555</v>
       </c>
       <c r="S14">
-        <v>5.763447495624545E-05</v>
+        <v>0.0001105888625584052</v>
       </c>
       <c r="T14">
-        <v>5.763447495624545E-05</v>
+        <v>0.0001105888625584052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H15">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I15">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J15">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>7.284446316864444</v>
+        <v>19.03177342287167</v>
       </c>
       <c r="R15">
-        <v>65.56001685177999</v>
+        <v>171.285960805845</v>
       </c>
       <c r="S15">
-        <v>3.088003725013285E-05</v>
+        <v>8.684238474646213E-05</v>
       </c>
       <c r="T15">
-        <v>3.088003725013284E-05</v>
+        <v>8.684238474646211E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1219473333333333</v>
+        <v>0.325805</v>
       </c>
       <c r="H16">
-        <v>0.365842</v>
+        <v>0.977415</v>
       </c>
       <c r="I16">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286909</v>
       </c>
       <c r="J16">
-        <v>0.0003073050043941503</v>
+        <v>0.0007947519504286907</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>10.60429405759711</v>
+        <v>22.72366590388</v>
       </c>
       <c r="R16">
-        <v>95.438646518374</v>
+        <v>204.51299313492</v>
       </c>
       <c r="S16">
-        <v>4.495345030573516E-05</v>
+        <v>0.0001036885682394306</v>
       </c>
       <c r="T16">
-        <v>4.495345030573515E-05</v>
+        <v>0.0001036885682394306</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H17">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I17">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J17">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>5152.256671346455</v>
+        <v>6293.438303053422</v>
       </c>
       <c r="R17">
-        <v>46370.31004211809</v>
+        <v>56640.9447274808</v>
       </c>
       <c r="S17">
-        <v>0.02184131380927091</v>
+        <v>0.0287170921147621</v>
       </c>
       <c r="T17">
-        <v>0.0218413138092709</v>
+        <v>0.0287170921147621</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H18">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I18">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J18">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>5430.669389022092</v>
+        <v>6809.389807603474</v>
       </c>
       <c r="R18">
-        <v>48876.02450119883</v>
+        <v>61284.50826843127</v>
       </c>
       <c r="S18">
-        <v>0.02302155383284419</v>
+        <v>0.03107138974499791</v>
       </c>
       <c r="T18">
-        <v>0.02302155383284419</v>
+        <v>0.03107138974499791</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H19">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I19">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J19">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>3508.696307683405</v>
+        <v>2935.438669111769</v>
       </c>
       <c r="R19">
-        <v>31578.26676915065</v>
+        <v>26418.94802200592</v>
       </c>
       <c r="S19">
-        <v>0.01487397503772192</v>
+        <v>0.01339446874647494</v>
       </c>
       <c r="T19">
-        <v>0.01487397503772192</v>
+        <v>0.01339446874647494</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H20">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I20">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J20">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>1879.928163879737</v>
+        <v>2305.11905453423</v>
       </c>
       <c r="R20">
-        <v>16919.35347491763</v>
+        <v>20746.07149080807</v>
       </c>
       <c r="S20">
-        <v>0.007969343063697452</v>
+        <v>0.01051830701072194</v>
       </c>
       <c r="T20">
-        <v>0.00796934306369745</v>
+        <v>0.01051830701072195</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.471469</v>
+        <v>39.46134166666666</v>
       </c>
       <c r="H21">
-        <v>94.414407</v>
+        <v>118.384025</v>
       </c>
       <c r="I21">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="J21">
-        <v>0.07930751460468205</v>
+        <v>0.09625996610278018</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>2736.695445306048</v>
+        <v>2752.279259533133</v>
       </c>
       <c r="R21">
-        <v>24630.25900775443</v>
+        <v>24770.5133357982</v>
       </c>
       <c r="S21">
-        <v>0.01160132886114758</v>
+        <v>0.01255870848582327</v>
       </c>
       <c r="T21">
-        <v>0.01160132886114758</v>
+        <v>0.01255870848582327</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H22">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I22">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J22">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N22">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O22">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P22">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q22">
-        <v>19.53258611144356</v>
+        <v>28.41025567092267</v>
       </c>
       <c r="R22">
-        <v>175.793275002992</v>
+        <v>255.692301038304</v>
       </c>
       <c r="S22">
-        <v>8.280203607464224E-05</v>
+        <v>0.0001296365976464715</v>
       </c>
       <c r="T22">
-        <v>8.280203607464224E-05</v>
+        <v>0.0001296365976464715</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H23">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I23">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J23">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>517.675491</v>
       </c>
       <c r="O23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P23">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q23">
-        <v>20.588069316068</v>
+        <v>30.739398097083</v>
       </c>
       <c r="R23">
-        <v>185.292623844612</v>
+        <v>276.654582873747</v>
       </c>
       <c r="S23">
-        <v>8.727641329672906E-05</v>
+        <v>0.0001402645238101387</v>
       </c>
       <c r="T23">
-        <v>8.727641329672906E-05</v>
+        <v>0.0001402645238101387</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H24">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I24">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J24">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N24">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P24">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q24">
-        <v>13.30172721205289</v>
+        <v>13.25135149975433</v>
       </c>
       <c r="R24">
-        <v>119.715544908476</v>
+        <v>119.262163497789</v>
       </c>
       <c r="S24">
-        <v>5.638833947452409E-05</v>
+        <v>6.046619722622963E-05</v>
       </c>
       <c r="T24">
-        <v>5.63883394745241E-05</v>
+        <v>6.046619722622963E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H25">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I25">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J25">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N25">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P25">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q25">
-        <v>7.126946712208889</v>
+        <v>10.40592098272567</v>
       </c>
       <c r="R25">
-        <v>64.14252040987999</v>
+        <v>93.653288844531</v>
       </c>
       <c r="S25">
-        <v>3.021236898173132E-05</v>
+        <v>4.748243758183581E-05</v>
       </c>
       <c r="T25">
-        <v>3.021236898173132E-05</v>
+        <v>4.748243758183581E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1193106666666667</v>
+        <v>0.178139</v>
       </c>
       <c r="H26">
-        <v>0.357932</v>
+        <v>0.534417</v>
       </c>
       <c r="I26">
-        <v>0.0003006606535958337</v>
+        <v>0.0004345431092138444</v>
       </c>
       <c r="J26">
-        <v>0.0003006606535958338</v>
+        <v>0.0004345431092138443</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N26">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O26">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P26">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q26">
-        <v>10.37501484417822</v>
+        <v>12.424521172024</v>
       </c>
       <c r="R26">
-        <v>93.37513359760401</v>
+        <v>111.820690548216</v>
       </c>
       <c r="S26">
-        <v>4.398149576820702E-05</v>
+        <v>5.669335294916875E-05</v>
       </c>
       <c r="T26">
-        <v>4.398149576820702E-05</v>
+        <v>5.669335294916875E-05</v>
       </c>
     </row>
   </sheetData>
